--- a/db/data/Calisthenics Skills.xlsx
+++ b/db/data/Calisthenics Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nkmatsumoto/code/nkmatsumoto/form_calisthenics_app/db/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14ABC48-2046-4B4C-A0F8-73CDC34BE1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8322CD29-1569-8542-B662-EC1361A786C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="940" windowWidth="27180" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,8 +722,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="m\-d"/>
-    <numFmt numFmtId="167" formatCode="hh:mm"/>
+    <numFmt numFmtId="164" formatCode="m\-d"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1054,7 +1054,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1140,7 +1140,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1161,18 +1161,18 @@
     <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1395,8 +1395,8 @@
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="213" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2942,7 +2942,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="12">
         <v>10</v>
       </c>
@@ -3210,11 +3210,11 @@
       <c r="F1" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
@@ -3225,9 +3225,9 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
@@ -3244,11 +3244,11 @@
         <v>3</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
@@ -3265,11 +3265,11 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="58"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
@@ -3286,11 +3286,11 @@
         <v>3</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
@@ -3307,11 +3307,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
@@ -3328,11 +3328,11 @@
         <v>2</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
@@ -3349,11 +3349,11 @@
         <v>2</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="58"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
@@ -3370,11 +3370,11 @@
         <v>6.25E-2</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="58"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
@@ -3385,9 +3385,9 @@
       <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
@@ -3396,9 +3396,9 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42" t="s">
@@ -3419,9 +3419,9 @@
       <c r="F12" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
@@ -3432,9 +3432,9 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
@@ -3451,11 +3451,11 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
@@ -3472,11 +3472,11 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="58"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
@@ -3493,11 +3493,11 @@
         <v>3</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
@@ -3514,9 +3514,9 @@
         <v>3</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
@@ -3533,11 +3533,11 @@
         <v>2</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
@@ -3554,11 +3554,11 @@
         <v>2</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="58"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
@@ -3575,11 +3575,11 @@
         <v>6.25E-2</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="58"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
@@ -3590,9 +3590,9 @@
       <c r="D21" s="16"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
@@ -3601,9 +3601,9 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
@@ -3624,9 +3624,9 @@
       <c r="F23" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
@@ -3637,9 +3637,9 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
@@ -3658,9 +3658,9 @@
         <v>3</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
@@ -3679,9 +3679,9 @@
         <v>3</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
@@ -3702,11 +3702,11 @@
       <c r="F27" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="58"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
@@ -3725,11 +3725,11 @@
         <v>2</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="58"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
@@ -3746,11 +3746,11 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="58"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
@@ -3767,11 +3767,11 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="58"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
@@ -3786,9 +3786,9 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="16"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="58"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
@@ -3799,9 +3799,9 @@
       <c r="D32" s="16"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -3810,9 +3810,9 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42" t="s">
@@ -3833,9 +3833,9 @@
       <c r="F34" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="58"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
@@ -3846,9 +3846,9 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="58"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
@@ -3875,11 +3875,11 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="54" t="s">
+      <c r="G37" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="58"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="13" t="s">
@@ -3894,11 +3894,11 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="54" t="s">
+      <c r="G38" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="58"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -3913,11 +3913,11 @@
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="54" t="s">
+      <c r="G39" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="58"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
@@ -3932,9 +3932,9 @@
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="58"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
@@ -3943,9 +3943,9 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="58"/>
     </row>
     <row r="61" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="42"/>
@@ -3954,17 +3954,17 @@
       <c r="D61" s="42"/>
       <c r="E61" s="42"/>
       <c r="F61" s="42"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="58"/>
     </row>
     <row r="62" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="58"/>
     </row>
     <row r="63" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
@@ -3973,9 +3973,9 @@
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="58"/>
     </row>
     <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
@@ -3984,47 +3984,12 @@
       <c r="D64" s="2"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
     <mergeCell ref="G63:I63"/>
     <mergeCell ref="G64:I64"/>
     <mergeCell ref="G37:I37"/>
@@ -4034,6 +3999,41 @@
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G61:I61"/>
     <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/data/Calisthenics Skills.xlsx
+++ b/db/data/Calisthenics Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nkmatsumoto/code/nkmatsumoto/form_calisthenics_app/db/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8322CD29-1569-8542-B662-EC1361A786C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B5823-E08F-2E47-8711-F652C73455BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="940" windowWidth="27180" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills Workout" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="217">
-  <si>
-    <t>kg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="215">
   <si>
     <t>T</t>
   </si>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>Banded planche hold</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
   <si>
     <t>40-50</t>
@@ -1019,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1085,7 +1079,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1161,18 +1154,18 @@
     <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1393,24 +1386,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1429,584 +1421,571 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
+        <v>1010</v>
+      </c>
+      <c r="B2" s="46">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="12">
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="12">
         <v>1010</v>
       </c>
-      <c r="C2" s="47">
+      <c r="B3" s="46">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>1010</v>
+      </c>
+      <c r="B4" s="46">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="12">
+      <c r="E4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="2">
+        <v>90</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>90</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>3011</v>
+      </c>
+      <c r="B7" s="2">
+        <v>90</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="2">
+        <v>90</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>2210</v>
+      </c>
+      <c r="B9" s="2">
+        <v>90</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2">
+        <v>90</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
         <v>1010</v>
       </c>
-      <c r="C3" s="47">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B11" s="2">
+        <v>90</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="12">
-        <v>1010</v>
-      </c>
-      <c r="C4" s="47">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="12">
-        <v>2013</v>
-      </c>
-      <c r="C5" s="2">
-        <v>90</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>90</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="12">
-        <v>3011</v>
-      </c>
-      <c r="C7" s="2">
-        <v>90</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="12">
-        <v>2012</v>
-      </c>
-      <c r="C8" s="2">
-        <v>90</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="12">
-        <v>2210</v>
-      </c>
-      <c r="C9" s="2">
-        <v>90</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2">
-        <v>90</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="E11" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12">
-        <v>1010</v>
-      </c>
-      <c r="C11" s="2">
-        <v>90</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="B13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" s="12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
         <v>1311</v>
       </c>
-      <c r="C14" s="48">
+      <c r="B14" s="47">
         <v>15</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="C14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="20">
         <v>1</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>1111</v>
+      </c>
+      <c r="B15" s="47">
+        <v>15</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="47">
+        <v>15</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B15" s="12">
-        <v>1111</v>
-      </c>
-      <c r="C15" s="48">
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="47">
         <v>15</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="C17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="20">
         <v>1</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B16" s="11" t="s">
+      <c r="F17" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <v>1310</v>
+      </c>
+      <c r="B18" s="2">
+        <v>30</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="48">
+    </row>
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="46">
         <v>15</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="48">
+      <c r="C19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="10">
         <v>15</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="20">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B18" s="12">
-        <v>1310</v>
-      </c>
-      <c r="C18" s="2">
-        <v>30</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B19" s="11" t="s">
+      <c r="C20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="47">
-        <v>15</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="10">
-        <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="B22" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B23" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="12">
         <v>1010</v>
       </c>
-      <c r="C23" s="4">
+      <c r="B23" s="4">
         <v>30</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4">
+        <v>30</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="E24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="4">
+    </row>
+    <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4">
         <v>30</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F26" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="22">
+        <v>30</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="20">
         <v>2</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="E27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="F27" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2">
+        <v>30</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="F28" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="22">
+      <c r="B29" s="2">
+        <v>90</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="F29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2">
+        <v>90</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="20">
-        <v>2</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="2">
-        <v>30</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="2">
+    <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2">
         <v>90</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="2">
-        <v>8</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="2">
-        <v>90</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="2">
-        <v>5</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="C31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="2">
-        <v>90</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2014,761 +1993,738 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
         <v>1110</v>
       </c>
-      <c r="C34" s="4">
+      <c r="B34" s="4">
         <v>30</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="4">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2">
         <v>2</v>
       </c>
-      <c r="F34" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="E35" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4">
+        <v>30</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" s="4">
+    <row r="37" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A37" s="12">
+        <v>3010</v>
+      </c>
+      <c r="B37" s="2">
+        <v>60</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A38" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="2">
+        <v>90</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A39" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B39" s="2">
+        <v>90</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A40" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B40" s="2">
+        <v>90</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A41" s="12">
+        <v>1012</v>
+      </c>
+      <c r="B41" s="2">
         <v>30</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="C41" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A42" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B42" s="2">
+        <v>60</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A43" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B43" s="2">
+        <v>60</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2">
         <v>2</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="4">
-        <v>30</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="12">
-        <v>3010</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="E43" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="2">
-        <v>90</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="2">
-        <v>3</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="12">
-        <v>2012</v>
-      </c>
-      <c r="C39" s="2">
-        <v>90</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="2">
-        <v>3</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="12">
-        <v>2012</v>
-      </c>
-      <c r="C40" s="2">
-        <v>90</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2">
-        <v>3</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="12">
-        <v>1012</v>
-      </c>
-      <c r="C41" s="2">
-        <v>30</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
-        <v>5</v>
-      </c>
-      <c r="B42" s="12">
-        <v>2012</v>
-      </c>
-      <c r="C42" s="2">
-        <v>60</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="16"/>
-      <c r="B43" s="12">
-        <v>2012</v>
-      </c>
-      <c r="C43" s="2">
-        <v>60</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="2">
-        <v>2</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="B45" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>2</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="22">
+        <v>30</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="20">
+        <v>2</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A47" s="12">
+        <v>2210</v>
+      </c>
+      <c r="B47" s="2">
+        <v>60</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48" s="12">
+        <v>2110</v>
+      </c>
+      <c r="B48" s="2">
+        <v>60</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="22">
+        <v>30</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="20">
+        <v>3</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="2">
+        <v>60</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="12">
+        <v>1311</v>
+      </c>
+      <c r="B53" s="22">
+        <v>30</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="48">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="12">
+        <v>1112</v>
+      </c>
+      <c r="B54" s="22">
+        <v>10</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="48">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="12">
+        <v>1010</v>
+      </c>
+      <c r="B55" s="2">
+        <v>10</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="48">
+        <v>1</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="12">
+        <v>1010</v>
+      </c>
+      <c r="B56" s="22">
+        <v>10</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="48">
+        <v>1</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="22">
+        <v>10</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="48">
+        <v>3</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="22">
+        <v>10</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="48">
+        <v>3</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="22">
+        <v>10</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="48">
+        <v>3</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="22">
+        <v>10</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="48">
+        <v>3</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="7.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="28"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="33"/>
+    </row>
+    <row r="62" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="31" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B46" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="22">
+    <row r="63" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="22">
         <v>30</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="C63" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="48">
+        <v>1</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="20">
+      <c r="F63" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="2">
+        <v>10</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="48">
+        <v>1</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="2">
+        <v>10</v>
+      </c>
+      <c r="C65" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="2">
+        <v>10</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="2">
+        <v>10</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="2">
+        <v>10</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="20">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="2">
+        <v>10</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="48">
         <v>2</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="25">
-        <v>5</v>
-      </c>
-      <c r="B47" s="12">
-        <v>2210</v>
-      </c>
-      <c r="C47" s="2">
-        <v>60</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="E69" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="2">
+        <v>10</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="48">
         <v>2</v>
       </c>
-      <c r="F47" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="25">
-        <v>20</v>
-      </c>
-      <c r="B48" s="12">
-        <v>2110</v>
-      </c>
-      <c r="C48" s="2">
-        <v>60</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2">
-        <v>3</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B49" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="22">
-        <v>30</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="20">
-        <v>3</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B50" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="2">
-        <v>60</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="2">
-        <v>3</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="29"/>
-    </row>
-    <row r="52" spans="2:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="32" t="s">
+      <c r="E70" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="2">
+        <v>10</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="12">
-        <v>1311</v>
-      </c>
-      <c r="C53" s="22">
-        <v>30</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="49">
-        <v>1</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="12">
-        <v>1112</v>
-      </c>
-      <c r="C54" s="22">
-        <v>10</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="49">
-        <v>1</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="12">
-        <v>1010</v>
-      </c>
-      <c r="C55" s="2">
-        <v>10</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="49">
-        <v>1</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="12">
-        <v>1010</v>
-      </c>
-      <c r="C56" s="22">
-        <v>10</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="49">
-        <v>1</v>
-      </c>
-      <c r="F56" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="22">
-        <v>10</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="49">
-        <v>3</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="22">
-        <v>10</v>
-      </c>
-      <c r="D58" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="49">
-        <v>3</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="22">
-        <v>10</v>
-      </c>
-      <c r="D59" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="49">
-        <v>3</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="22">
-        <v>10</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="49">
-        <v>3</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="7.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="29"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="34"/>
-    </row>
-    <row r="62" spans="2:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="22">
-        <v>30</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="49">
-        <v>1</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="2">
-        <v>10</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="49">
-        <v>1</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="2">
-        <v>10</v>
-      </c>
-      <c r="D65" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="2">
-        <v>10</v>
-      </c>
-      <c r="D66" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="2">
-        <v>10</v>
-      </c>
-      <c r="D67" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="2">
-        <v>10</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="20">
-        <v>1</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="2">
-        <v>10</v>
-      </c>
-      <c r="D69" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="49">
-        <v>2</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" s="7" t="s">
+      <c r="E71" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="2">
-        <v>10</v>
-      </c>
-      <c r="D70" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" s="49">
-        <v>2</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" s="2">
-        <v>10</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -2776,260 +2732,243 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="2">
+        <v>90</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2">
+        <v>5</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="12">
+        <v>4011</v>
+      </c>
+      <c r="B76" s="2">
+        <v>90</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="12">
+        <v>4011</v>
+      </c>
+      <c r="B77" s="2">
+        <v>90</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2">
+        <v>5</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="12">
+        <v>3110</v>
+      </c>
+      <c r="B78" s="2">
+        <v>90</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2">
         <v>4</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" s="2">
+      <c r="E78" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="12">
+        <v>3011</v>
+      </c>
+      <c r="B79" s="2">
         <v>90</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="2">
-        <v>5</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12">
-        <v>4011</v>
-      </c>
-      <c r="C76" s="2">
+      <c r="C79" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2">
+        <v>4</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="2">
-        <v>5</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="12">
-        <v>30</v>
-      </c>
-      <c r="B77" s="12">
-        <v>4011</v>
-      </c>
-      <c r="C77" s="2">
-        <v>90</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="2">
-        <v>5</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12">
-        <v>3110</v>
-      </c>
-      <c r="C78" s="2">
-        <v>90</v>
-      </c>
-      <c r="D78" s="15" t="s">
+    </row>
+    <row r="80" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="12">
+        <v>3010</v>
+      </c>
+      <c r="B80" s="2">
+        <v>60</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="12">
+        <v>1013</v>
+      </c>
+      <c r="B81" s="2">
+        <v>60</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E78" s="2">
-        <v>4</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12">
-        <v>3011</v>
-      </c>
-      <c r="C79" s="2">
-        <v>90</v>
-      </c>
-      <c r="D79" s="15" t="s">
+      <c r="F81" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" s="12">
+        <v>3020</v>
+      </c>
+      <c r="B82" s="2">
+        <v>60</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E79" s="2">
-        <v>4</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="12">
-        <v>3</v>
-      </c>
-      <c r="B80" s="12">
-        <v>3010</v>
-      </c>
-      <c r="C80" s="2">
-        <v>60</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" s="2">
-        <v>3</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="7" t="s">
+      <c r="F82" s="7" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12">
-        <v>1013</v>
-      </c>
-      <c r="C81" s="2">
-        <v>60</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="2">
-        <v>3</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="12">
-        <v>10</v>
-      </c>
-      <c r="B82" s="12">
-        <v>3020</v>
-      </c>
-      <c r="C82" s="2">
-        <v>60</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" s="2">
-        <v>3</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G24" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G29" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G34" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G40" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G41" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G48" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G50" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G53" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G57" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G60" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G63" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G65" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G71" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G75" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G76" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="G78" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G79" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="G80" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G81" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G82" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G14" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G38" r:id="rId62" xr:uid="{2B5FC4B2-B253-2242-83C6-5A316C306366}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F24" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F29" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F34" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F40" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F41" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F48" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F50" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F53" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F57" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F60" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F63" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F65" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F71" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F75" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F76" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F78" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F79" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F80" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F81" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F82" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F14" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F38" r:id="rId62" xr:uid="{2B5FC4B2-B253-2242-83C6-5A316C306366}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3083,88 +3022,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="37" t="s">
+    </row>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="I2" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="37" t="s">
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="D3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="37" t="s">
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="D4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="H4" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="38"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="37" t="s">
+      <c r="C5" s="39"/>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="H4" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3192,202 +3131,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="G1" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+        <v>120</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="44">
+        <v>127</v>
+      </c>
+      <c r="E4" s="43">
         <v>0.10416666666666667</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="G4" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="G5" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="G6" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="G7" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="G8" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="44">
+        <v>147</v>
+      </c>
+      <c r="E9" s="43">
         <v>6.25E-2</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="G9" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="45"/>
+        <v>149</v>
+      </c>
+      <c r="B10" s="44"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
@@ -3396,203 +3335,203 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="E12" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="F12" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="43"/>
+        <v>120</v>
+      </c>
+      <c r="B13" s="42"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="46">
+        <v>151</v>
+      </c>
+      <c r="E14" s="45">
         <v>0.10416666666666667</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
+      <c r="G14" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="46">
+        <v>154</v>
+      </c>
+      <c r="E15" s="45">
         <v>0.10416666666666667</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
+      <c r="G15" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E16" s="12">
         <v>3</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58"/>
+      <c r="G16" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="12">
         <v>3</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58"/>
+      <c r="G18" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
+      <c r="G19" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="44">
+        <v>159</v>
+      </c>
+      <c r="E20" s="43">
         <v>6.25E-2</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
+      <c r="G20" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="45"/>
+        <v>149</v>
+      </c>
+      <c r="B21" s="44"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
@@ -3601,207 +3540,207 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="E23" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="F23" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="43"/>
+        <v>120</v>
+      </c>
+      <c r="B24" s="42"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2">
         <v>115</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E25" s="2">
         <v>3</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="E26" s="2">
         <v>3</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E27" s="2">
         <v>3</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
+        <v>178</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="56"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
+      <c r="G28" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="56"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="44">
+        <v>185</v>
+      </c>
+      <c r="E29" s="43">
         <v>0.10416666666666667</v>
       </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
+      <c r="G29" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" s="44">
+        <v>188</v>
+      </c>
+      <c r="E30" s="43">
         <v>0.10416666666666667</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
+      <c r="G30" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" s="56"/>
+      <c r="I30" s="57"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="16"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="45"/>
+        <v>149</v>
+      </c>
+      <c r="B32" s="44"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="58"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -3810,131 +3749,131 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="58"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="54"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" s="42" t="s">
+      <c r="A34" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="E34" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="F34" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="58"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="58"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="54"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" s="57"/>
-      <c r="I37" s="58"/>
+      <c r="G37" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" s="53"/>
+      <c r="I37" s="54"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="H38" s="57"/>
-      <c r="I38" s="58"/>
+      <c r="G38" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" s="53"/>
+      <c r="I38" s="54"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="H39" s="57"/>
-      <c r="I39" s="58"/>
+      <c r="G39" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="H39" s="53"/>
+      <c r="I39" s="54"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="58"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
@@ -3943,28 +3882,28 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="58"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="54"/>
     </row>
     <row r="61" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="58"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="54"/>
     </row>
     <row r="62" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="58"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="54"/>
     </row>
     <row r="63" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
@@ -3973,9 +3912,9 @@
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="58"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="54"/>
     </row>
     <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
@@ -3984,12 +3923,47 @@
       <c r="D64" s="2"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="58"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
     <mergeCell ref="G63:I63"/>
     <mergeCell ref="G64:I64"/>
     <mergeCell ref="G37:I37"/>
@@ -3999,41 +3973,6 @@
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G61:I61"/>
     <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
